--- a/Industry/201612-201908/HKD/MILLION/Analysis_140_16.1 - Lighting (SITC 813 in 5 digits)_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_140_16.1 - Lighting (SITC 813 in 5 digits)_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="1536" yWindow="1536"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -26209,6 +26210,565 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6314.415</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6195.294</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1.886</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3646.381</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5618.052</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-9.317</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3433.954</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-5.826</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3152.227</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3101.96</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.595</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1657.282</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2540.304</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-18.106</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1582.761</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-4.497</v>
+      </c>
+      <c r="J3" t="n">
+        <v>49.921</v>
+      </c>
+      <c r="K3" t="n">
+        <v>50.07</v>
+      </c>
+      <c r="L3" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="M3" t="n">
+        <v>45.217</v>
+      </c>
+      <c r="N3" t="n">
+        <v>46.091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1240.805</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1241.936</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="E4" t="n">
+        <v>849.985</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1372.143</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10.484</v>
+      </c>
+      <c r="H4" t="n">
+        <v>936.692</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10.201</v>
+      </c>
+      <c r="J4" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.046</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="M4" t="n">
+        <v>24.424</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27.277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" t="n">
+        <v>687.804</v>
+      </c>
+      <c r="C5" t="n">
+        <v>784.0410000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.992</v>
+      </c>
+      <c r="E5" t="n">
+        <v>510.659</v>
+      </c>
+      <c r="F5" t="n">
+        <v>750.0359999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-4.337</v>
+      </c>
+      <c r="H5" t="n">
+        <v>334.935</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-34.411</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10.893</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.655</v>
+      </c>
+      <c r="L5" t="n">
+        <v>14.005</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9.754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" t="n">
+        <v>568.3630000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>441.136</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-22.385</v>
+      </c>
+      <c r="E6" t="n">
+        <v>239.071</v>
+      </c>
+      <c r="F6" t="n">
+        <v>371.133</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-15.869</v>
+      </c>
+      <c r="H6" t="n">
+        <v>273.31</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.322</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9.000999999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.556</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.606</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" t="n">
+        <v>288.266</v>
+      </c>
+      <c r="C7" t="n">
+        <v>304.478</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.624</v>
+      </c>
+      <c r="E7" t="n">
+        <v>184.76</v>
+      </c>
+      <c r="F7" t="n">
+        <v>258.429</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-15.124</v>
+      </c>
+      <c r="H7" t="n">
+        <v>103.583</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-43.936</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.565</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.915</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.067</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" t="n">
+        <v>167.791</v>
+      </c>
+      <c r="C8" t="n">
+        <v>164.852</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1.751</v>
+      </c>
+      <c r="E8" t="n">
+        <v>88.83499999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>134.03</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-18.697</v>
+      </c>
+      <c r="H8" t="n">
+        <v>87.16500000000001</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-1.879</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.657</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.661</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.436</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" t="n">
+        <v>95.178</v>
+      </c>
+      <c r="C9" t="n">
+        <v>67.714</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-28.856</v>
+      </c>
+      <c r="E9" t="n">
+        <v>54.269</v>
+      </c>
+      <c r="F9" t="n">
+        <v>91.282</v>
+      </c>
+      <c r="G9" t="n">
+        <v>34.805</v>
+      </c>
+      <c r="H9" t="n">
+        <v>56.357</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.507</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.093</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" t="n">
+        <v>60.679</v>
+      </c>
+      <c r="C10" t="n">
+        <v>42.15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-30.536</v>
+      </c>
+      <c r="E10" t="n">
+        <v>35.211</v>
+      </c>
+      <c r="F10" t="n">
+        <v>54.239</v>
+      </c>
+      <c r="G10" t="n">
+        <v>28.682</v>
+      </c>
+      <c r="H10" t="n">
+        <v>31.775</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-9.76</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-13.265</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16.948</v>
+      </c>
+      <c r="F11" t="n">
+        <v>31.468</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9.875999999999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15.332</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-9.538</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20.281</v>
+      </c>
+      <c r="C12" t="n">
+        <v>18.388</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-9.334</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>14.987</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-18.495</v>
+      </c>
+      <c r="H12" t="n">
+        <v>12.044</v>
+      </c>
+      <c r="I12" t="n">
+        <v>28.669</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="9"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" width="9"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="9"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>226</v>
       </c>
       <c r="K1" s="2" t="s">
